--- a/NopCommerce/DataExcel/db_review.xlsx
+++ b/NopCommerce/DataExcel/db_review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KATALON DRIVE\Katalon Project NOPCommerce\NopCommerce\DataExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1725B82-65E7-4C9B-BA07-0572E412EFEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787FE2C9-02C6-42C9-834D-0FD2F89F3F37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="3780" windowWidth="11800" windowHeight="7110" xr2:uid="{D8AE40EC-19F5-4362-8472-01115625A4D4}"/>
+    <workbookView xWindow="4520" yWindow="3090" windowWidth="11800" windowHeight="7110" xr2:uid="{D8AE40EC-19F5-4362-8472-01115625A4D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
